--- a/medicine/Pharmacie/Amitifadine/Amitifadine.xlsx
+++ b/medicine/Pharmacie/Amitifadine/Amitifadine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'amitifadine, connue également sous le nom de EB-1010 ou de DOV-21947[2], est un antidépresseur triple, développé par Euthymics à la suite du rachat de DOV Pharmaceutical en juillet 2010.
-L'essai de phase II/III a débuté en mars 2011, et les premiers résultats sont attendus pour l'été 2012[3].
+L'amitifadine, connue également sous le nom de EB-1010 ou de DOV-21947, est un antidépresseur triple, développé par Euthymics à la suite du rachat de DOV Pharmaceutical en juillet 2010.
+L'essai de phase II/III a débuté en mars 2011, et les premiers résultats sont attendus pour l'été 2012.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amitifadine agit en inhibant les recaptures de sérotonine, de norépinéphrine et de dopamine dans un ratio de 1:2:8 (c'est-à-dire qu'il est 8 fois plus efficace sur la sérotonine que sur la dopamine)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amitifadine agit en inhibant les recaptures de sérotonine, de norépinéphrine et de dopamine dans un ratio de 1:2:8 (c'est-à-dire qu'il est 8 fois plus efficace sur la sérotonine que sur la dopamine).
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Efficacité et tolérance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le produit réduit l'immobilité dans les tests de la nage forcée et de suspension par la queue, sans hausse significative de l'activité locomotrice[5].
-L'efficacité a été démontrée dans un essai de phase II dans lequel le produit a surclassé le placebo[4].
-Le profil d'effets secondaires n'est pas significativement différent de celui du placebo, et l'amitifadine n'est associée ni à une diminution de la fonction sexuelle, ni à des effets sur le poids[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le produit réduit l'immobilité dans les tests de la nage forcée et de suspension par la queue, sans hausse significative de l'activité locomotrice.
+L'efficacité a été démontrée dans un essai de phase II dans lequel le produit a surclassé le placebo.
+Le profil d'effets secondaires n'est pas significativement différent de celui du placebo, et l'amitifadine n'est associée ni à une diminution de la fonction sexuelle, ni à des effets sur le poids.
 </t>
         </is>
       </c>
